--- a/parallelData.xlsx
+++ b/parallelData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="parallelData" sheetId="1" r:id="rId1"/>
@@ -2028,11 +2028,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437181280"/>
-        <c:axId val="437184544"/>
+        <c:axId val="1536582224"/>
+        <c:axId val="1536590384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437181280"/>
+        <c:axId val="1536582224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,12 +2145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437184544"/>
+        <c:crossAx val="1536590384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437184544"/>
+        <c:axId val="1536590384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437181280"/>
+        <c:crossAx val="1536582224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2873,15 +2873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
